--- a/output/adapt_xgb_many_item_400_2.xlsx
+++ b/output/adapt_xgb_many_item_400_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,42 +451,102 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MSE_transfer_rt</t>
+          <t>MSE_transfer_coral</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>MSE_transfer_sa</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MSE_transfer_bw</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MSE_transfer_nnw</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MAE_no_transfer</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>MAE_transfer_basic</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>MAE_transfer_rt</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>MAE_transfer_coral</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>MAE_transfer_sa</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>MAE_transfer_bw</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>MAE_transfer_nnw</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>MSE_diff_basic</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>MSE_diff_rt</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>MSE_transfer_coral</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>MSE_diff_sa</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>MSE_diff_bw</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>MSE_diff_nnw</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>MAE_diff_basic</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>MAE_diff_rt</t>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>MAE_transfer_coral</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>MAE_diff_sa</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>MAE_diff_bw</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>MAE_diff_nnw</t>
         </is>
       </c>
     </row>
@@ -500,31 +560,67 @@
         <v>1.224559961485893</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9984317500062485</v>
+        <v>1.227225739489796</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9618563999561655</v>
+        <v>1.120835828974163</v>
       </c>
       <c r="E2" t="n">
+        <v>1.033296906461127</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.8809340079803796</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.890879775520842</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.5149422876031311</v>
       </c>
-      <c r="F2" t="n">
-        <v>0.6478126553974488</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.3899771517897169</v>
-      </c>
-      <c r="H2" t="n">
-        <v>-0.2261282114796441</v>
-      </c>
       <c r="I2" t="n">
-        <v>-0.2627035615297272</v>
+        <v>0.5028908839856228</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1328703677943177</v>
+        <v>0.5656839662244296</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.1249651358134142</v>
+        <v>0.78726599205821</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.4370141014276453</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.3903746227792839</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.002665778003903441</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.10372413251173</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.191263055024766</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.3436259535055131</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.3336801859650507</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-0.01205140361750834</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.05074167862129852</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.2723237044550789</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-0.0779281861754858</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-0.1245676648238472</v>
       </c>
     </row>
     <row r="3">
@@ -537,31 +633,67 @@
         <v>2.588536900271843</v>
       </c>
       <c r="C3" t="n">
-        <v>2.676087336325529</v>
+        <v>3.013620179988538</v>
       </c>
       <c r="D3" t="n">
-        <v>2.773818860118491</v>
+        <v>3.161065882811345</v>
       </c>
       <c r="E3" t="n">
+        <v>2.852513077306079</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.806361749175249</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.699051178012179</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.9914813140809273</v>
       </c>
-      <c r="F3" t="n">
-        <v>0.9499622197271969</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.9244903770945242</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.0875504360536854</v>
-      </c>
       <c r="I3" t="n">
-        <v>0.1852819598466482</v>
+        <v>0.8658876819259795</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.04151909435373047</v>
+        <v>0.8625860071605033</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.06699093698640313</v>
+        <v>1.032059815070777</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.8616075054061442</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.7461395487668154</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.4250832797166946</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.5725289825395015</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.2639761770342361</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.2178248489034056</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.1105142777403354</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-0.1255936321549478</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-0.1288953069204241</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.04057850098984983</v>
+      </c>
+      <c r="V3" t="n">
+        <v>-0.1298738086747832</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-0.2453417653141119</v>
       </c>
     </row>
     <row r="4">
@@ -574,31 +706,67 @@
         <v>5.485710658411413</v>
       </c>
       <c r="C4" t="n">
-        <v>5.75470319881038</v>
+        <v>5.71663333954605</v>
       </c>
       <c r="D4" t="n">
-        <v>3.194475606217247</v>
+        <v>3.502699856861465</v>
       </c>
       <c r="E4" t="n">
+        <v>3.176874955584172</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.230494342152407</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.11746815953909</v>
+      </c>
+      <c r="H4" t="n">
         <v>1.282621473071498</v>
       </c>
-      <c r="F4" t="n">
-        <v>1.364960367222715</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.8818975941320282</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.2689925403989673</v>
-      </c>
       <c r="I4" t="n">
-        <v>-2.291235052194165</v>
+        <v>1.290585842418499</v>
       </c>
       <c r="J4" t="n">
-        <v>0.08233889415121687</v>
+        <v>1.009296810350896</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.4007238789394696</v>
+        <v>1.108763838657743</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.9005700749771435</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.8744593543504965</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.2309226811346372</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-1.983010801549948</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-2.30883570282724</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-2.255216316259006</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-2.368242498872323</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.007964369347001066</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-0.2733246627206014</v>
+      </c>
+      <c r="U4" t="n">
+        <v>-0.1738576344137543</v>
+      </c>
+      <c r="V4" t="n">
+        <v>-0.3820513980943543</v>
+      </c>
+      <c r="W4" t="n">
+        <v>-0.4081621187210013</v>
       </c>
     </row>
     <row r="5">
@@ -611,31 +779,67 @@
         <v>14.22789284129596</v>
       </c>
       <c r="C5" t="n">
-        <v>13.90222535743871</v>
+        <v>13.62535385482689</v>
       </c>
       <c r="D5" t="n">
-        <v>13.05036062965079</v>
+        <v>12.53143968824912</v>
       </c>
       <c r="E5" t="n">
+        <v>12.63280682930526</v>
+      </c>
+      <c r="F5" t="n">
+        <v>12.37904794826922</v>
+      </c>
+      <c r="G5" t="n">
+        <v>12.56539049160015</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.136556738826326</v>
       </c>
-      <c r="F5" t="n">
-        <v>1.22862587701119</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.9956966818729515</v>
-      </c>
-      <c r="H5" t="n">
-        <v>-0.3256674838572486</v>
-      </c>
       <c r="I5" t="n">
-        <v>-1.177532211645172</v>
+        <v>1.075380537244296</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0920691381848644</v>
+        <v>1.015973113539503</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.1408600569533741</v>
+        <v>1.018982735495265</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.9943578763063982</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.9724489795748279</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.6025389864690691</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-1.696453153046841</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-1.595086011990695</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-1.848844893026735</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-1.662502349695812</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-0.06117620158202919</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-0.1205836252868224</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-0.1175740033310602</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-0.1421988625199274</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-0.1641077592514977</v>
       </c>
     </row>
     <row r="6">
@@ -648,31 +852,67 @@
         <v>8.201373654786686</v>
       </c>
       <c r="C6" t="n">
-        <v>8.04659215585388</v>
+        <v>7.811590549391124</v>
       </c>
       <c r="D6" t="n">
-        <v>5.989001049426005</v>
+        <v>5.859342160701627</v>
       </c>
       <c r="E6" t="n">
+        <v>5.807247552767949</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5.88428453792401</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6.225046535432612</v>
+      </c>
+      <c r="H6" t="n">
         <v>1.062188837815168</v>
       </c>
-      <c r="F6" t="n">
-        <v>1.118513707506002</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.8059341007858779</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-0.154781498932806</v>
-      </c>
       <c r="I6" t="n">
-        <v>-2.212372605360681</v>
+        <v>1.013146724023256</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05632486969083361</v>
+        <v>0.8617176915191481</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.2562547370292901</v>
+        <v>0.8229994240953901</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.808653786169095</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.7944319410373135</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.3897831053955612</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-2.342031494085059</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-2.394126102018737</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-2.317089116862675</v>
+      </c>
+      <c r="R6" t="n">
+        <v>-1.976327119354074</v>
+      </c>
+      <c r="S6" t="n">
+        <v>-0.04904211379191192</v>
+      </c>
+      <c r="T6" t="n">
+        <v>-0.2004711462960199</v>
+      </c>
+      <c r="U6" t="n">
+        <v>-0.239189413719778</v>
+      </c>
+      <c r="V6" t="n">
+        <v>-0.253535051646073</v>
+      </c>
+      <c r="W6" t="n">
+        <v>-0.2677568967778545</v>
       </c>
     </row>
   </sheetData>
